--- a/Profiling Research/DataExcel.xlsx
+++ b/Profiling Research/DataExcel.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan2\Documents\GitHub\CSCI-2210-Projects\Profiling Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BA9CF6-6E74-43C2-BA31-1194785E08DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BD7CDF-08AB-4547-B9F8-3600BC1BD5BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="4" xr2:uid="{1FF4DDE6-8E3E-4B91-A5EE-91A9CBA178B5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="6" xr2:uid="{1FF4DDE6-8E3E-4B91-A5EE-91A9CBA178B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Random Graphs" sheetId="2" r:id="rId1"/>
     <sheet name="Sorted Graphs" sheetId="3" r:id="rId2"/>
     <sheet name="Reverse Graphs" sheetId="4" r:id="rId3"/>
     <sheet name="10% Random Graphs" sheetId="5" r:id="rId4"/>
-    <sheet name="Data" sheetId="1" r:id="rId5"/>
+    <sheet name="N=100" sheetId="6" r:id="rId5"/>
+    <sheet name="N = 1000" sheetId="7" r:id="rId6"/>
+    <sheet name="N = 10000" sheetId="8" r:id="rId7"/>
+    <sheet name="Data" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="28">
   <si>
     <t>N = 100</t>
   </si>
@@ -113,6 +116,12 @@
   <si>
     <t>??</t>
   </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>ALL DATA AT N = 100</t>
+  </si>
 </sst>
 </file>
 
@@ -171,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,6 +209,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2077,6 +2089,1397 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>N = 100</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'N=100'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Execution Life Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'N=100'!$E$4:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>ShellSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>InsertSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>InsertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>QuickMedOf3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SelectionSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sink Sort</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MergeSort</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>OriginalQuick</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Grand Total</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Radix</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CountingSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'N=100'!$F$4:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13642734.583333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14937991.916666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15181595.666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16770619.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17590943.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18359915.666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18575379.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21698451.666666668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25509794.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58959638.166666664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59380677.333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD93-4D1C-A35A-00A4D6B42DA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="822258616"/>
+        <c:axId val="822257304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="822258616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sorting Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="822257304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="822257304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average amount of time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="822258616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>N = 1000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28106233595800523"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'N = 1000'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Execution Life Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'N = 1000'!$E$3:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>QuickMedOf3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ShellSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MergeSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CountingSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Radix</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>InsertSort</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>InsertionSort</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SelectionSort</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sink Sort</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>OriginalQuick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'N = 1000'!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>23468622.333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24374309.833333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46423379.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58120379.916666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71708740.916666672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>379645740.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>392765752.33333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>574110133.83333337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1092836109.9166667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A15-4712-9109-4F28652D86DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="822256320"/>
+        <c:axId val="822256976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="822256320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sorting Algoroithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="822256976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="822256976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average amount of time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="822256320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>N = 10000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'N = 10000'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Execution Life Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'N = 10000'!$E$3:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>CountingSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>QuickMedOf3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ShellSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Radix</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MergeSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>InsertionSort</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>InsertSort</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sink Sort</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>OriginalQuick</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SelectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'N = 10000'!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>80954408.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100532298.91666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169426161.08333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192318677</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>715958765.33333337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7DC-4190-95F6-984CC4063F30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="606899344"/>
+        <c:axId val="606893112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="606899344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sorting Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606893112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="606893112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average amount of time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606899344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2121,8 +3524,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.42550678040244966"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:x val="0.43384011373578302"/>
+          <c:y val="5.0925925925925923E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2922,6 +4325,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.22511956838728492"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6004,6 +7415,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8336,7 +9867,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8839,7 +10370,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9342,7 +10873,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9845,7 +11376,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10348,7 +11879,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10851,7 +12382,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11354,7 +12885,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11857,7 +13388,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12360,20 +13891,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>871537</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12401,15 +15441,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1147762</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>1004887</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12436,16 +15476,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>885826</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12478,15 +15518,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12514,14 +15554,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12550,15 +15590,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12593,13 +15633,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>576262</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>271462</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12627,15 +15667,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12663,15 +15703,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
+      <xdr:colOff>42862</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12704,15 +15744,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12740,15 +15780,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12776,15 +15816,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12804,6 +15844,129 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF33356-B7A7-42C0-A607-25119C8918E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA364E6-BE33-4814-A5AF-5BDF12FA32AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0E1D61-802A-44C9-8E16-E1A285568F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13111,8 +16274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6E43B8-13AD-46FE-B97D-3A52D032EBD4}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13407,8 +16570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16822AD5-A992-4977-B27B-E06D269F4D7C}">
   <dimension ref="A3:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13690,7 +16853,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13963,7 +17126,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14229,11 +17392,4217 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62940C0C-DD01-403B-9D57-F879C8FDD37C}">
-  <dimension ref="A1:Q99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D023976B-B622-48AE-9F4B-3AE1C614D626}">
+  <dimension ref="A1:F122"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>20678384</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10">
+        <v>20598470</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>13642734.583333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10">
+        <v>21333770</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>14937991.916666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>15917288</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>15181595.666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>16329018</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>16770619.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12">
+        <v>16138296</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>17590943.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>18404806</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>18359915.666666668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>17535974</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>18575379.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10">
+        <v>18142796</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>21698451.666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12">
+        <v>31156162</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <v>25509794.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2</v>
+      </c>
+      <c r="C13" s="12">
+        <v>38929860</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>58959638.166666664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12">
+        <v>31115160</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>59380677.333333336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>16482424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10">
+        <v>18303156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="11">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>16485344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12">
+        <v>15196504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="14">
+        <v>2</v>
+      </c>
+      <c r="C19" s="12">
+        <v>16444386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="14">
+        <v>3</v>
+      </c>
+      <c r="C20" s="12">
+        <v>14627796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>15018588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>13423652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="11">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
+        <v>13409212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="14">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12">
+        <v>20197836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="14">
+        <v>2</v>
+      </c>
+      <c r="C25" s="12">
+        <v>21097828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="14">
+        <v>3</v>
+      </c>
+      <c r="C26" s="12">
+        <v>19958892</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10">
+        <v>50814740</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10">
+        <v>52136228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="11">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10">
+        <v>52805104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="14">
+        <v>1</v>
+      </c>
+      <c r="C30" s="12">
+        <v>59332212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="14">
+        <v>2</v>
+      </c>
+      <c r="C31" s="12">
+        <v>64474334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="14">
+        <v>3</v>
+      </c>
+      <c r="C32" s="12">
+        <v>58507194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="11">
+        <v>1</v>
+      </c>
+      <c r="C33" s="10">
+        <v>13704776</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="11">
+        <v>2</v>
+      </c>
+      <c r="C34" s="10">
+        <v>13233770</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="11">
+        <v>3</v>
+      </c>
+      <c r="C35" s="10">
+        <v>12577810</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="14">
+        <v>1</v>
+      </c>
+      <c r="C36" s="12">
+        <v>12947778</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="14">
+        <v>2</v>
+      </c>
+      <c r="C37" s="5">
+        <v>14131896</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="14">
+        <v>3</v>
+      </c>
+      <c r="C38" s="12">
+        <v>13151762</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="11">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10">
+        <v>17581346</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="11">
+        <v>2</v>
+      </c>
+      <c r="C40" s="10">
+        <v>17101102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="11">
+        <v>3</v>
+      </c>
+      <c r="C41" s="10">
+        <v>16530342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="14">
+        <v>1</v>
+      </c>
+      <c r="C42" s="12">
+        <v>17043114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="14">
+        <v>2</v>
+      </c>
+      <c r="C43" s="12">
+        <v>16999718</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="14">
+        <v>3</v>
+      </c>
+      <c r="C44" s="12">
+        <v>16754314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="11">
+        <v>1</v>
+      </c>
+      <c r="C45" s="10">
+        <v>16807248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="11">
+        <v>2</v>
+      </c>
+      <c r="C46" s="10">
+        <v>16155814</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="11">
+        <v>3</v>
+      </c>
+      <c r="C47" s="10">
+        <v>17371016</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="14">
+        <v>1</v>
+      </c>
+      <c r="C48" s="12">
+        <v>13619238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="14">
+        <v>2</v>
+      </c>
+      <c r="C49" s="12">
+        <v>13084806</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="14">
+        <v>3</v>
+      </c>
+      <c r="C50" s="12">
+        <v>12906928</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="11">
+        <v>1</v>
+      </c>
+      <c r="C51" s="10">
+        <v>13230270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="11">
+        <v>2</v>
+      </c>
+      <c r="C52" s="10">
+        <v>13568125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="11">
+        <v>3</v>
+      </c>
+      <c r="C53" s="10">
+        <v>12985685</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="14">
+        <v>1</v>
+      </c>
+      <c r="C54" s="12">
+        <v>16384764</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="14">
+        <v>2</v>
+      </c>
+      <c r="C55" s="12">
+        <v>15988567</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="14">
+        <v>3</v>
+      </c>
+      <c r="C56" s="12">
+        <v>16354256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="11">
+        <v>1</v>
+      </c>
+      <c r="C57" s="10">
+        <v>78170750</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="11">
+        <v>2</v>
+      </c>
+      <c r="C58" s="10">
+        <v>80102348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="11">
+        <v>3</v>
+      </c>
+      <c r="C59" s="10">
+        <v>79685429</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="14">
+        <v>1</v>
+      </c>
+      <c r="C60" s="12">
+        <v>54784220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="14">
+        <v>2</v>
+      </c>
+      <c r="C61" s="12">
+        <v>58355422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="14">
+        <v>3</v>
+      </c>
+      <c r="C62" s="12">
+        <v>58468215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="11">
+        <v>1</v>
+      </c>
+      <c r="C63" s="10">
+        <v>24553852</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="11">
+        <v>2</v>
+      </c>
+      <c r="C64" s="10">
+        <v>24401320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="11">
+        <v>3</v>
+      </c>
+      <c r="C65" s="10">
+        <v>24508784</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="14">
+        <v>1</v>
+      </c>
+      <c r="C66" s="12">
+        <v>17416616</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="14">
+        <v>2</v>
+      </c>
+      <c r="C67" s="5">
+        <v>18473776</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="14">
+        <v>3</v>
+      </c>
+      <c r="C68" s="12">
+        <v>18575124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="11">
+        <v>1</v>
+      </c>
+      <c r="C69" s="10">
+        <v>17901800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="11">
+        <v>2</v>
+      </c>
+      <c r="C70" s="10">
+        <v>17846254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="11">
+        <v>3</v>
+      </c>
+      <c r="C71" s="10">
+        <v>17352396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="14">
+        <v>1</v>
+      </c>
+      <c r="C72" s="12">
+        <v>18192314</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="14">
+        <v>2</v>
+      </c>
+      <c r="C73" s="12">
+        <v>18313322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="14">
+        <v>3</v>
+      </c>
+      <c r="C74" s="12">
+        <v>17606882</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="11">
+        <v>1</v>
+      </c>
+      <c r="C75" s="10">
+        <v>16694084</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="11">
+        <v>2</v>
+      </c>
+      <c r="C76" s="10">
+        <v>16528480</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="11">
+        <v>3</v>
+      </c>
+      <c r="C77" s="10">
+        <v>16489589</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="14">
+        <v>1</v>
+      </c>
+      <c r="C78" s="12">
+        <v>18036510</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="14">
+        <v>2</v>
+      </c>
+      <c r="C79" s="12">
+        <v>17297562</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="14">
+        <v>3</v>
+      </c>
+      <c r="C80" s="12">
+        <v>18010124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="11">
+        <v>1</v>
+      </c>
+      <c r="C81" s="10">
+        <v>13962324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="11">
+        <v>2</v>
+      </c>
+      <c r="C82" s="10">
+        <v>13948923</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="11">
+        <v>3</v>
+      </c>
+      <c r="C83" s="10">
+        <v>13991296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="14">
+        <v>1</v>
+      </c>
+      <c r="C84" s="12">
+        <v>18825694</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="14">
+        <v>2</v>
+      </c>
+      <c r="C85" s="12">
+        <v>18312998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="14">
+        <v>3</v>
+      </c>
+      <c r="C86" s="12">
+        <v>19214776</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="11">
+        <v>1</v>
+      </c>
+      <c r="C87" s="10">
+        <v>53419298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="11">
+        <v>2</v>
+      </c>
+      <c r="C88" s="10">
+        <v>52985425</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="11">
+        <v>3</v>
+      </c>
+      <c r="C89" s="10">
+        <v>50750984</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="14">
+        <v>1</v>
+      </c>
+      <c r="C90" s="12">
+        <v>58652050</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="14">
+        <v>2</v>
+      </c>
+      <c r="C91" s="12">
+        <v>62358918</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="14">
+        <v>3</v>
+      </c>
+      <c r="C92" s="12">
+        <v>58954861</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="11">
+        <v>1</v>
+      </c>
+      <c r="C93" s="10">
+        <v>15947422</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="11">
+        <v>2</v>
+      </c>
+      <c r="C94" s="10">
+        <v>14231608</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="11">
+        <v>3</v>
+      </c>
+      <c r="C95" s="10">
+        <v>14549022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="14">
+        <v>1</v>
+      </c>
+      <c r="C96" s="12">
+        <v>12829484</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="14">
+        <v>2</v>
+      </c>
+      <c r="C97" s="5">
+        <v>13213284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="14">
+        <v>3</v>
+      </c>
+      <c r="C98" s="12">
+        <v>13054826</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="11">
+        <v>1</v>
+      </c>
+      <c r="C99" s="10">
+        <v>17296346</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="11">
+        <v>2</v>
+      </c>
+      <c r="C100" s="10">
+        <v>17808620</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="11">
+        <v>3</v>
+      </c>
+      <c r="C101" s="10">
+        <v>17589540</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="14">
+        <v>1</v>
+      </c>
+      <c r="C102" s="12">
+        <v>17926196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="14">
+        <v>2</v>
+      </c>
+      <c r="C103" s="12">
+        <v>17710242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="14">
+        <v>3</v>
+      </c>
+      <c r="C104" s="12">
+        <v>18634136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="11">
+        <v>1</v>
+      </c>
+      <c r="C105" s="10">
+        <v>17179344</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="11">
+        <v>2</v>
+      </c>
+      <c r="C106" s="10">
+        <v>16201984</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="11">
+        <v>3</v>
+      </c>
+      <c r="C107" s="10">
+        <v>16548951</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="14">
+        <v>1</v>
+      </c>
+      <c r="C108" s="12">
+        <v>12979806</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="14">
+        <v>2</v>
+      </c>
+      <c r="C109" s="12">
+        <v>13525758</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="14">
+        <v>3</v>
+      </c>
+      <c r="C110" s="12">
+        <v>13526485</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="11">
+        <v>1</v>
+      </c>
+      <c r="C111" s="10">
+        <v>13525758</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="11">
+        <v>2</v>
+      </c>
+      <c r="C112" s="10">
+        <v>13345714</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="11">
+        <v>3</v>
+      </c>
+      <c r="C113" s="10">
+        <v>13303268</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="14">
+        <v>1</v>
+      </c>
+      <c r="C114" s="12">
+        <v>18558212</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="14">
+        <v>2</v>
+      </c>
+      <c r="C115" s="12">
+        <v>19054606</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="14">
+        <v>3</v>
+      </c>
+      <c r="C116" s="12">
+        <v>18956125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="11">
+        <v>1</v>
+      </c>
+      <c r="C117" s="10">
+        <v>53915426</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="11">
+        <v>2</v>
+      </c>
+      <c r="C118" s="10">
+        <v>52835162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="11">
+        <v>3</v>
+      </c>
+      <c r="C119" s="10">
+        <v>54947234</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" s="14">
+        <v>1</v>
+      </c>
+      <c r="C120" s="12">
+        <v>56276214</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" s="14">
+        <v>2</v>
+      </c>
+      <c r="C121" s="12">
+        <v>58340944</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="14">
+        <v>3</v>
+      </c>
+      <c r="C122" s="12">
+        <v>59011074</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="E4:F14">
+    <sortCondition ref="F4:F14"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187B3AC7-E5F2-47D7-8ADC-900CAED1C621}">
+  <dimension ref="A1:F121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1527616112</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1517381876</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>23468622.333333332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1342757550</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>24374309.833333332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>501752228</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>46423379.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>484732940</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>58120379.916666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12">
+        <v>584627468</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>71708740.916666672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>549669126</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>379645740.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>696518188</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>392765752.33333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10">
+        <v>547301308</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>574110133.83333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>30801346310</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1092836109.9166667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12">
+        <v>19843790798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="14">
+        <v>3</v>
+      </c>
+      <c r="C13" s="12">
+        <v>38976273884</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>24124566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>24031618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10">
+        <v>24246052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="14">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
+        <v>239801926</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="14">
+        <v>2</v>
+      </c>
+      <c r="C18" s="12">
+        <v>748856576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="14">
+        <v>3</v>
+      </c>
+      <c r="C19" s="12">
+        <v>560311482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>27432276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>27333552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="11">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
+        <v>27834710</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12">
+        <v>53512664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="14">
+        <v>2</v>
+      </c>
+      <c r="C24" s="12">
+        <v>55173264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="14">
+        <v>3</v>
+      </c>
+      <c r="C25" s="12">
+        <v>54276806</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>56524468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10">
+        <v>73795734</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="11">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10">
+        <v>58043594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12">
+        <v>75465454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="14">
+        <v>2</v>
+      </c>
+      <c r="C30" s="12">
+        <v>69492690</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="14">
+        <v>3</v>
+      </c>
+      <c r="C31" s="12">
+        <v>64976542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10">
+        <v>13949230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2</v>
+      </c>
+      <c r="C33" s="10">
+        <v>13854267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="11">
+        <v>3</v>
+      </c>
+      <c r="C34" s="10">
+        <v>13645002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="14">
+        <v>1</v>
+      </c>
+      <c r="C35" s="12">
+        <v>13823868</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="14">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5">
+        <v>13977654</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="14">
+        <v>3</v>
+      </c>
+      <c r="C37" s="12">
+        <v>15844936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="11">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10">
+        <v>624772288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="11">
+        <v>2</v>
+      </c>
+      <c r="C39" s="10">
+        <v>619675386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="11">
+        <v>3</v>
+      </c>
+      <c r="C40" s="10">
+        <v>618568142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="14">
+        <v>1</v>
+      </c>
+      <c r="C41" s="12">
+        <v>648743904</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="14">
+        <v>2</v>
+      </c>
+      <c r="C42" s="12">
+        <v>617964360</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="14">
+        <v>3</v>
+      </c>
+      <c r="C43" s="12">
+        <v>654924821</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="11">
+        <v>1</v>
+      </c>
+      <c r="C44" s="10">
+        <v>20289872</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="11">
+        <v>2</v>
+      </c>
+      <c r="C45" s="10">
+        <v>22584685</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="11">
+        <v>3</v>
+      </c>
+      <c r="C46" s="10">
+        <v>22128464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="14">
+        <v>1</v>
+      </c>
+      <c r="C47" s="12">
+        <v>14880800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="14">
+        <v>2</v>
+      </c>
+      <c r="C48" s="12">
+        <v>14995357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="14">
+        <v>5</v>
+      </c>
+      <c r="C49" s="12">
+        <v>15529118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="11">
+        <v>1</v>
+      </c>
+      <c r="C50" s="10">
+        <v>21334150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="11">
+        <v>2</v>
+      </c>
+      <c r="C51" s="10">
+        <v>21689524</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="11">
+        <v>3</v>
+      </c>
+      <c r="C52" s="10">
+        <v>21665945</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="14">
+        <v>1</v>
+      </c>
+      <c r="C53" s="12">
+        <v>35732654</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="14">
+        <v>2</v>
+      </c>
+      <c r="C54" s="12">
+        <v>35174206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="14">
+        <v>3</v>
+      </c>
+      <c r="C55" s="12">
+        <v>35684951</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="11">
+        <v>1</v>
+      </c>
+      <c r="C56" s="10">
+        <v>56016370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="11">
+        <v>2</v>
+      </c>
+      <c r="C57" s="10">
+        <v>55464648</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="11">
+        <v>3</v>
+      </c>
+      <c r="C58" s="10">
+        <v>58313774</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="14">
+        <v>1</v>
+      </c>
+      <c r="C59" s="12">
+        <v>69565128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="14">
+        <v>2</v>
+      </c>
+      <c r="C60" s="12">
+        <v>70589651</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="14">
+        <v>3</v>
+      </c>
+      <c r="C61" s="12">
+        <v>66585214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="11">
+        <v>1</v>
+      </c>
+      <c r="C62" s="10">
+        <v>2356699390</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="11">
+        <v>2</v>
+      </c>
+      <c r="C63" s="10">
+        <v>2287534070</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="11">
+        <v>3</v>
+      </c>
+      <c r="C64" s="10">
+        <v>2354569832</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="14">
+        <v>1</v>
+      </c>
+      <c r="C65" s="12">
+        <v>960136760</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="14">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1025256682</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="14">
+        <v>3</v>
+      </c>
+      <c r="C67" s="12">
+        <v>1021402646</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="11">
+        <v>1</v>
+      </c>
+      <c r="C68" s="10">
+        <v>542184950</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="11">
+        <v>2</v>
+      </c>
+      <c r="C69" s="10">
+        <v>553722738</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="11">
+        <v>3</v>
+      </c>
+      <c r="C70" s="10">
+        <v>543641642</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="14">
+        <v>1</v>
+      </c>
+      <c r="C71" s="12">
+        <v>544368544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="14">
+        <v>2</v>
+      </c>
+      <c r="C72" s="12">
+        <v>549820898</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="14">
+        <v>3</v>
+      </c>
+      <c r="C73" s="12">
+        <v>630296158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="11">
+        <v>1</v>
+      </c>
+      <c r="C74" s="10">
+        <v>24320076</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="11">
+        <v>2</v>
+      </c>
+      <c r="C75" s="10">
+        <v>24311526</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="11">
+        <v>3</v>
+      </c>
+      <c r="C76" s="10">
+        <v>24501719</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="14">
+        <v>1</v>
+      </c>
+      <c r="C77" s="12">
+        <v>961070350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="14">
+        <v>2</v>
+      </c>
+      <c r="C78" s="12">
+        <v>972821508</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="14">
+        <v>3</v>
+      </c>
+      <c r="C79" s="12">
+        <v>942747472</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="11">
+        <v>1</v>
+      </c>
+      <c r="C80" s="10">
+        <v>23960862</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="11">
+        <v>2</v>
+      </c>
+      <c r="C81" s="10">
+        <v>22844536</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="11">
+        <v>3</v>
+      </c>
+      <c r="C82" s="10">
+        <v>22985467</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="14">
+        <v>1</v>
+      </c>
+      <c r="C83" s="12">
+        <v>49939372</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="14">
+        <v>2</v>
+      </c>
+      <c r="C84" s="12">
+        <v>51028452</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="14">
+        <v>3</v>
+      </c>
+      <c r="C85" s="12">
+        <v>51578008</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="11">
+        <v>1</v>
+      </c>
+      <c r="C86" s="10">
+        <v>54701494</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="11">
+        <v>2</v>
+      </c>
+      <c r="C87" s="10">
+        <v>55571524</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="11">
+        <v>3</v>
+      </c>
+      <c r="C88" s="10">
+        <v>54894157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="14">
+        <v>1</v>
+      </c>
+      <c r="C89" s="12">
+        <v>71551112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="14">
+        <v>2</v>
+      </c>
+      <c r="C90" s="12">
+        <v>94035826</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="14">
+        <v>3</v>
+      </c>
+      <c r="C91" s="12">
+        <v>72198360</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="11">
+        <v>1</v>
+      </c>
+      <c r="C92" s="10">
+        <v>393689386</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="11">
+        <v>2</v>
+      </c>
+      <c r="C93" s="10">
+        <v>573383900</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="11">
+        <v>3</v>
+      </c>
+      <c r="C94" s="10">
+        <v>718952704</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="14">
+        <v>1</v>
+      </c>
+      <c r="C95" s="12">
+        <v>28033626</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="14">
+        <v>2</v>
+      </c>
+      <c r="C96" s="5">
+        <v>30607024</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="14">
+        <v>3</v>
+      </c>
+      <c r="C97" s="12">
+        <v>32993196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="11">
+        <v>1</v>
+      </c>
+      <c r="C98" s="10">
+        <v>674923510</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="11">
+        <v>2</v>
+      </c>
+      <c r="C99" s="10">
+        <v>556203530</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="11">
+        <v>3</v>
+      </c>
+      <c r="C100" s="10">
+        <v>362140798</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="14">
+        <v>1</v>
+      </c>
+      <c r="C101" s="12">
+        <v>10593088620</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="14">
+        <v>2</v>
+      </c>
+      <c r="C102" s="12">
+        <v>10532154415</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="14">
+        <v>3</v>
+      </c>
+      <c r="C103" s="12">
+        <v>14540069086</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="11">
+        <v>1</v>
+      </c>
+      <c r="C104" s="10">
+        <v>23733850</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="11">
+        <v>2</v>
+      </c>
+      <c r="C105" s="10">
+        <v>23311860</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="11">
+        <v>3</v>
+      </c>
+      <c r="C106" s="10">
+        <v>24039180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="14">
+        <v>1</v>
+      </c>
+      <c r="C107" s="12">
+        <v>28175936</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="14">
+        <v>2</v>
+      </c>
+      <c r="C108" s="12">
+        <v>26633288</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="14">
+        <v>3</v>
+      </c>
+      <c r="C109" s="12">
+        <v>29925076</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="11">
+        <v>1</v>
+      </c>
+      <c r="C110" s="10">
+        <v>22673688</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="11">
+        <v>2</v>
+      </c>
+      <c r="C111" s="10">
+        <v>24979148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="11">
+        <v>3</v>
+      </c>
+      <c r="C112" s="10">
+        <v>27757860</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="14">
+        <v>1</v>
+      </c>
+      <c r="C113" s="12">
+        <v>48057042</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="14">
+        <v>2</v>
+      </c>
+      <c r="C114" s="12">
+        <v>43145504</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="14">
+        <v>3</v>
+      </c>
+      <c r="C115" s="12">
+        <v>43777634</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="11">
+        <v>1</v>
+      </c>
+      <c r="C116" s="10">
+        <v>59386476</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="11">
+        <v>2</v>
+      </c>
+      <c r="C117" s="10">
+        <v>57246772</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="11">
+        <v>3</v>
+      </c>
+      <c r="C118" s="10">
+        <v>57485548</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" s="14">
+        <v>1</v>
+      </c>
+      <c r="C119" s="12">
+        <v>69011632</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" s="14">
+        <v>2</v>
+      </c>
+      <c r="C120" s="12">
+        <v>68225238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" s="14">
+        <v>3</v>
+      </c>
+      <c r="C121" s="12">
+        <v>68808044</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="E3:F13">
+    <sortCondition ref="F3:F13"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C1D50-B89D-45BD-9085-596DA83A8F78}">
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>185010190170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>80954408.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>100532298.91666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>52633188276</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>169426161.08333334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>192318677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>715958765.33333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>73840029460</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="14">
+        <v>3</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>121625232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>123943118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10">
+        <v>120250962</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="14">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
+        <v>52393041272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="14">
+        <v>2</v>
+      </c>
+      <c r="C18" s="12">
+        <v>53072770110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="14">
+        <v>3</v>
+      </c>
+      <c r="C19" s="12">
+        <v>52965184966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>220070046</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>194017588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="11">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
+        <v>194309504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1068777508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="14">
+        <v>2</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1071919276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="14">
+        <v>3</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1042812910</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>83199024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10">
+        <v>81549444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="11">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10">
+        <v>80982294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12">
+        <v>159530916</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="14">
+        <v>2</v>
+      </c>
+      <c r="C30" s="12">
+        <v>162124416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="14">
+        <v>3</v>
+      </c>
+      <c r="C31" s="12">
+        <v>160388842</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10">
+        <v>22014996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2</v>
+      </c>
+      <c r="C33" s="10">
+        <v>21891154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="11">
+        <v>3</v>
+      </c>
+      <c r="C34" s="10">
+        <v>21584762</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="14">
+        <v>1</v>
+      </c>
+      <c r="C35" s="12">
+        <v>25096454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="14">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5">
+        <v>25948625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="14">
+        <v>3</v>
+      </c>
+      <c r="C37" s="12">
+        <v>25372296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="11">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10">
+        <v>74245146852</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="11">
+        <v>2</v>
+      </c>
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="11">
+        <v>3</v>
+      </c>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="14">
+        <v>1</v>
+      </c>
+      <c r="C41" s="12">
+        <v>73926291588</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="14">
+        <v>2</v>
+      </c>
+      <c r="C42" s="12"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="14">
+        <v>3</v>
+      </c>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="11">
+        <v>1</v>
+      </c>
+      <c r="C44" s="10">
+        <v>64816220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="11">
+        <v>2</v>
+      </c>
+      <c r="C45" s="10">
+        <v>64582359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="11">
+        <v>3</v>
+      </c>
+      <c r="C46" s="10">
+        <v>63303896</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="14">
+        <v>1</v>
+      </c>
+      <c r="C47" s="12">
+        <v>25523346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="14">
+        <v>2</v>
+      </c>
+      <c r="C48" s="12">
+        <v>26433104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="14">
+        <v>3</v>
+      </c>
+      <c r="C49" s="12">
+        <v>25852167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="11">
+        <v>1</v>
+      </c>
+      <c r="C50" s="10">
+        <v>111048464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="11">
+        <v>2</v>
+      </c>
+      <c r="C51" s="10">
+        <v>110815334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="11">
+        <v>3</v>
+      </c>
+      <c r="C52" s="10">
+        <v>109529642</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="14">
+        <v>1</v>
+      </c>
+      <c r="C53" s="12">
+        <v>472018862</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="14">
+        <v>2</v>
+      </c>
+      <c r="C54" s="12">
+        <v>272960802</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="14">
+        <v>3</v>
+      </c>
+      <c r="C55" s="12">
+        <v>483507592</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="11">
+        <v>1</v>
+      </c>
+      <c r="C56" s="10">
+        <v>78995616</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="11">
+        <v>2</v>
+      </c>
+      <c r="C57" s="10">
+        <v>79205468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="11">
+        <v>3</v>
+      </c>
+      <c r="C58" s="10">
+        <v>78425197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="14">
+        <v>1</v>
+      </c>
+      <c r="C59" s="12">
+        <v>193776440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="14">
+        <v>2</v>
+      </c>
+      <c r="C60" s="12">
+        <v>194775688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="14">
+        <v>3</v>
+      </c>
+      <c r="C61" s="12">
+        <v>194558658</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="11">
+        <v>1</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="11">
+        <v>2</v>
+      </c>
+      <c r="C63" s="10"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="11">
+        <v>3</v>
+      </c>
+      <c r="C64" s="10"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="14">
+        <v>1</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="14">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="14">
+        <v>3</v>
+      </c>
+      <c r="C67" s="12"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="11">
+        <v>1</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="11">
+        <v>2</v>
+      </c>
+      <c r="C69" s="10"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="11">
+        <v>3</v>
+      </c>
+      <c r="C70" s="10"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="14">
+        <v>1</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="14">
+        <v>2</v>
+      </c>
+      <c r="C72" s="12"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="14">
+        <v>3</v>
+      </c>
+      <c r="C73" s="12"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="11">
+        <v>1</v>
+      </c>
+      <c r="C74" s="10">
+        <v>104368748</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="11">
+        <v>2</v>
+      </c>
+      <c r="C75" s="10">
+        <v>103849758</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="11">
+        <v>3</v>
+      </c>
+      <c r="C76" s="10">
+        <v>104513248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="14">
+        <v>1</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="14">
+        <v>2</v>
+      </c>
+      <c r="C78" s="12"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="14">
+        <v>3</v>
+      </c>
+      <c r="C79" s="12"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="11">
+        <v>1</v>
+      </c>
+      <c r="C80" s="10">
+        <v>151346894</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="11">
+        <v>2</v>
+      </c>
+      <c r="C81" s="10">
+        <v>156489542</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="11">
+        <v>3</v>
+      </c>
+      <c r="C82" s="10">
+        <v>153486845</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="14">
+        <v>1</v>
+      </c>
+      <c r="C83" s="12">
+        <v>838541316</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="14">
+        <v>2</v>
+      </c>
+      <c r="C84" s="12">
+        <v>755781544</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="14">
+        <v>3</v>
+      </c>
+      <c r="C85" s="12">
+        <v>692478180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="11">
+        <v>1</v>
+      </c>
+      <c r="C86" s="10">
+        <v>77701288</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="11">
+        <v>2</v>
+      </c>
+      <c r="C87" s="10">
+        <v>80602864</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="11">
+        <v>3</v>
+      </c>
+      <c r="C88" s="10">
+        <v>79345178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="14">
+        <v>1</v>
+      </c>
+      <c r="C89" s="12">
+        <v>221427026</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="14">
+        <v>2</v>
+      </c>
+      <c r="C90" s="12">
+        <v>220889554</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="14">
+        <v>3</v>
+      </c>
+      <c r="C91" s="12">
+        <v>221817666</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="11">
+        <v>1</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="11">
+        <v>2</v>
+      </c>
+      <c r="C93" s="10"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="11">
+        <v>3</v>
+      </c>
+      <c r="C94" s="10"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="14">
+        <v>1</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="14">
+        <v>2</v>
+      </c>
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="14">
+        <v>3</v>
+      </c>
+      <c r="C97" s="12"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="11">
+        <v>1</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="11">
+        <v>2</v>
+      </c>
+      <c r="C99" s="10"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="11">
+        <v>3</v>
+      </c>
+      <c r="C100" s="10"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="14">
+        <v>1</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="14">
+        <v>2</v>
+      </c>
+      <c r="C102" s="12"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="14">
+        <v>3</v>
+      </c>
+      <c r="C103" s="12"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="11">
+        <v>1</v>
+      </c>
+      <c r="C104" s="10">
+        <v>113961620</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="11">
+        <v>2</v>
+      </c>
+      <c r="C105" s="10">
+        <v>112152744</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="11">
+        <v>3</v>
+      </c>
+      <c r="C106" s="10">
+        <v>109019682</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="14">
+        <v>1</v>
+      </c>
+      <c r="C107" s="12">
+        <v>15578910930</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="14">
+        <v>2</v>
+      </c>
+      <c r="C108" s="12"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="14">
+        <v>3</v>
+      </c>
+      <c r="C109" s="12"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="11">
+        <v>1</v>
+      </c>
+      <c r="C110" s="10">
+        <v>247192694</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="11">
+        <v>2</v>
+      </c>
+      <c r="C111" s="10">
+        <v>192791480</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="11">
+        <v>3</v>
+      </c>
+      <c r="C112" s="10">
+        <v>192015900</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="14">
+        <v>1</v>
+      </c>
+      <c r="C113" s="12">
+        <v>667104516</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="14">
+        <v>2</v>
+      </c>
+      <c r="C114" s="12">
+        <v>599687804</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="14">
+        <v>3</v>
+      </c>
+      <c r="C115" s="12">
+        <v>625914874</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="11">
+        <v>1</v>
+      </c>
+      <c r="C116" s="10">
+        <v>79911340</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="11">
+        <v>2</v>
+      </c>
+      <c r="C117" s="10">
+        <v>79434858</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="11">
+        <v>3</v>
+      </c>
+      <c r="C118" s="10">
+        <v>92100334</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" s="14">
+        <v>1</v>
+      </c>
+      <c r="C119" s="12">
+        <v>192673186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" s="14">
+        <v>2</v>
+      </c>
+      <c r="C120" s="12">
+        <v>198962490</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" s="14">
+        <v>3</v>
+      </c>
+      <c r="C121" s="12">
+        <v>186899242</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="E3:F12">
+    <sortCondition ref="F12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62940C0C-DD01-403B-9D57-F879C8FDD37C}">
+  <dimension ref="A1:O101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="T82" sqref="T82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14279,29 +21648,29 @@
       <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -15525,27 +22894,27 @@
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="I35" s="14" t="s">
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="I35" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="M35" s="14" t="s">
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="M35" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -16678,7 +24047,7 @@
         <v>69011632</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>14</v>
       </c>
@@ -16717,7 +24086,7 @@
         <v>68225238</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>14</v>
       </c>
@@ -16756,34 +24125,34 @@
         <v>68808044</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F67" s="2"/>
       <c r="J67" s="2"/>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="E68" s="14" t="s">
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="E68" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="I68" s="14" t="s">
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="I68" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="M68" s="14" t="s">
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="M68" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -16821,7 +24190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>3</v>
       </c>
@@ -16859,7 +24228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>3</v>
       </c>
@@ -16890,11 +24259,8 @@
         <v>2</v>
       </c>
       <c r="O71" s="10"/>
-      <c r="Q71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>3</v>
       </c>
@@ -16926,7 +24292,7 @@
       </c>
       <c r="O72" s="10"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>6</v>
       </c>
@@ -16964,7 +24330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>6</v>
       </c>
@@ -16996,7 +24362,7 @@
       </c>
       <c r="O74" s="5"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>6</v>
       </c>
@@ -17028,7 +24394,7 @@
       </c>
       <c r="O75" s="12"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>12</v>
       </c>
@@ -17066,7 +24432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>12</v>
       </c>
@@ -17096,7 +24462,7 @@
       </c>
       <c r="O77" s="10"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>12</v>
       </c>
@@ -17126,7 +24492,7 @@
       </c>
       <c r="O78" s="10"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>15</v>
       </c>
@@ -17164,7 +24530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>15</v>
       </c>
@@ -17900,8 +25266,21 @@
         <v>186899242</v>
       </c>
     </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E68:G68"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="I35:K35"/>
@@ -17910,14 +25289,6 @@
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M35:O35"/>
     <mergeCell ref="M68:O68"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E68:G68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
